--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/49/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/49/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3143143143143143</v>
+        <v>0.3370337033703371</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1959.95995995996</v>
+        <v>972.947294729473</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0963963963963964</v>
+        <v>0.03083308330833083</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2832832832832833</v>
+        <v>0.1731173117311731</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1169.169169169169</v>
+        <v>1192.989298929893</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>790.7907907907909</v>
+        <v>296.7596759675968</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>388.3883883883884</v>
+        <v>944.9495949594959</v>
       </c>
     </row>
   </sheetData>
